--- a/backend/charts/reorder_strategy.xlsx
+++ b/backend/charts/reorder_strategy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>reorder_point</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_inventory</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,9 @@
       <c r="F2" t="n">
         <v>1189924</v>
       </c>
+      <c r="G2" t="n">
+        <v>1190244</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +516,9 @@
       <c r="F3" t="n">
         <v>1243193</v>
       </c>
+      <c r="G3" t="n">
+        <v>1243256</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +541,9 @@
       <c r="F4" t="n">
         <v>1364604</v>
       </c>
+      <c r="G4" t="n">
+        <v>1364610</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,6 +566,9 @@
       <c r="F5" t="n">
         <v>397460</v>
       </c>
+      <c r="G5" t="n">
+        <v>397464</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +591,9 @@
       <c r="F6" t="n">
         <v>790485</v>
       </c>
+      <c r="G6" t="n">
+        <v>791219</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +616,9 @@
       <c r="F7" t="n">
         <v>972587</v>
       </c>
+      <c r="G7" t="n">
+        <v>974108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,6 +641,9 @@
       <c r="F8" t="n">
         <v>1109857</v>
       </c>
+      <c r="G8" t="n">
+        <v>1110962</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +666,9 @@
       <c r="F9" t="n">
         <v>1186552</v>
       </c>
+      <c r="G9" t="n">
+        <v>1193472</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +691,9 @@
       <c r="F10" t="n">
         <v>1001292</v>
       </c>
+      <c r="G10" t="n">
+        <v>1001398</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,6 +716,9 @@
       <c r="F11" t="n">
         <v>1074383</v>
       </c>
+      <c r="G11" t="n">
+        <v>1074393</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +741,9 @@
       <c r="F12" t="n">
         <v>1191983</v>
       </c>
+      <c r="G12" t="n">
+        <v>1193464</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -728,6 +766,9 @@
       <c r="F13" t="n">
         <v>1832748</v>
       </c>
+      <c r="G13" t="n">
+        <v>1832783</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +791,9 @@
       <c r="F14" t="n">
         <v>934026</v>
       </c>
+      <c r="G14" t="n">
+        <v>934031</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,6 +816,9 @@
       <c r="F15" t="n">
         <v>1270579</v>
       </c>
+      <c r="G15" t="n">
+        <v>1271003</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,6 +841,9 @@
       <c r="F16" t="n">
         <v>1387282</v>
       </c>
+      <c r="G16" t="n">
+        <v>1416249</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -816,6 +866,9 @@
       <c r="F17" t="n">
         <v>1122564</v>
       </c>
+      <c r="G17" t="n">
+        <v>1122737</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -838,6 +891,9 @@
       <c r="F18" t="n">
         <v>950279</v>
       </c>
+      <c r="G18" t="n">
+        <v>950992</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -860,6 +916,9 @@
       <c r="F19" t="n">
         <v>845452</v>
       </c>
+      <c r="G19" t="n">
+        <v>845565</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,6 +941,9 @@
       <c r="F20" t="n">
         <v>1086182</v>
       </c>
+      <c r="G20" t="n">
+        <v>1086213</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,6 +966,9 @@
       <c r="F21" t="n">
         <v>1131598</v>
       </c>
+      <c r="G21" t="n">
+        <v>1137602</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -926,6 +991,9 @@
       <c r="F22" t="n">
         <v>1425429</v>
       </c>
+      <c r="G22" t="n">
+        <v>1425611</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -948,6 +1016,9 @@
       <c r="F23" t="n">
         <v>957978</v>
       </c>
+      <c r="G23" t="n">
+        <v>958134</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -970,6 +1041,9 @@
       <c r="F24" t="n">
         <v>2980920</v>
       </c>
+      <c r="G24" t="n">
+        <v>2980920</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -992,6 +1066,9 @@
       <c r="F25" t="n">
         <v>1314802</v>
       </c>
+      <c r="G25" t="n">
+        <v>1314966</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1014,6 +1091,9 @@
       <c r="F26" t="n">
         <v>1174309</v>
       </c>
+      <c r="G26" t="n">
+        <v>1174317</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1036,6 +1116,9 @@
       <c r="F27" t="n">
         <v>1170499</v>
       </c>
+      <c r="G27" t="n">
+        <v>1173658</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1058,6 +1141,9 @@
       <c r="F28" t="n">
         <v>844594</v>
       </c>
+      <c r="G28" t="n">
+        <v>844594</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1080,6 +1166,9 @@
       <c r="F29" t="n">
         <v>977152</v>
       </c>
+      <c r="G29" t="n">
+        <v>977488</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1102,6 +1191,9 @@
       <c r="F30" t="n">
         <v>1490460</v>
       </c>
+      <c r="G30" t="n">
+        <v>1490460</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1124,6 +1216,9 @@
       <c r="F31" t="n">
         <v>1829049</v>
       </c>
+      <c r="G31" t="n">
+        <v>1829065</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1146,6 +1241,9 @@
       <c r="F32" t="n">
         <v>1106851</v>
       </c>
+      <c r="G32" t="n">
+        <v>1106925</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1168,6 +1266,9 @@
       <c r="F33" t="n">
         <v>1371226</v>
       </c>
+      <c r="G33" t="n">
+        <v>1371229</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1190,6 +1291,9 @@
       <c r="F34" t="n">
         <v>1123594</v>
       </c>
+      <c r="G34" t="n">
+        <v>1123611</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1212,6 +1316,9 @@
       <c r="F35" t="n">
         <v>1028751</v>
       </c>
+      <c r="G35" t="n">
+        <v>1028793</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1234,6 +1341,9 @@
       <c r="F36" t="n">
         <v>1307037</v>
       </c>
+      <c r="G36" t="n">
+        <v>1307056</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1256,6 +1366,9 @@
       <c r="F37" t="n">
         <v>1833450</v>
       </c>
+      <c r="G37" t="n">
+        <v>1833831</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1278,6 +1391,9 @@
       <c r="F38" t="n">
         <v>1301836</v>
       </c>
+      <c r="G38" t="n">
+        <v>1301982</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1300,6 +1416,9 @@
       <c r="F39" t="n">
         <v>836855</v>
       </c>
+      <c r="G39" t="n">
+        <v>836879</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1322,6 +1441,9 @@
       <c r="F40" t="n">
         <v>1153516</v>
       </c>
+      <c r="G40" t="n">
+        <v>1158102</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1344,6 +1466,9 @@
       <c r="F41" t="n">
         <v>1355042</v>
       </c>
+      <c r="G41" t="n">
+        <v>1355170</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1366,6 +1491,9 @@
       <c r="F42" t="n">
         <v>1093004</v>
       </c>
+      <c r="G42" t="n">
+        <v>1093004</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1388,6 +1516,9 @@
       <c r="F43" t="n">
         <v>1472613</v>
       </c>
+      <c r="G43" t="n">
+        <v>1502813</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1410,6 +1541,9 @@
       <c r="F44" t="n">
         <v>1133105</v>
       </c>
+      <c r="G44" t="n">
+        <v>1156545</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1432,6 +1566,9 @@
       <c r="F45" t="n">
         <v>1099615</v>
       </c>
+      <c r="G45" t="n">
+        <v>1100273</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1454,6 +1591,9 @@
       <c r="F46" t="n">
         <v>1201621</v>
       </c>
+      <c r="G46" t="n">
+        <v>1201841</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1476,6 +1616,9 @@
       <c r="F47" t="n">
         <v>695548</v>
       </c>
+      <c r="G47" t="n">
+        <v>695548</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1498,6 +1641,9 @@
       <c r="F48" t="n">
         <v>1239473</v>
       </c>
+      <c r="G48" t="n">
+        <v>1239511</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1520,6 +1666,9 @@
       <c r="F49" t="n">
         <v>1201433</v>
       </c>
+      <c r="G49" t="n">
+        <v>1201862</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1542,6 +1691,9 @@
       <c r="F50" t="n">
         <v>1018185</v>
       </c>
+      <c r="G50" t="n">
+        <v>1020268</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1564,6 +1716,9 @@
       <c r="F51" t="n">
         <v>1119078</v>
       </c>
+      <c r="G51" t="n">
+        <v>1119498</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1586,6 +1741,9 @@
       <c r="F52" t="n">
         <v>1137701</v>
       </c>
+      <c r="G52" t="n">
+        <v>1137919</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1608,6 +1766,9 @@
       <c r="F53" t="n">
         <v>794914</v>
       </c>
+      <c r="G53" t="n">
+        <v>794916</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1630,6 +1791,9 @@
       <c r="F54" t="n">
         <v>1005954</v>
       </c>
+      <c r="G54" t="n">
+        <v>1006156</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1652,6 +1816,9 @@
       <c r="F55" t="n">
         <v>1311180</v>
       </c>
+      <c r="G55" t="n">
+        <v>1311347</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1674,6 +1841,9 @@
       <c r="F56" t="n">
         <v>1115088</v>
       </c>
+      <c r="G56" t="n">
+        <v>1115092</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1696,6 +1866,9 @@
       <c r="F57" t="n">
         <v>1118075</v>
       </c>
+      <c r="G57" t="n">
+        <v>1118277</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1718,6 +1891,9 @@
       <c r="F58" t="n">
         <v>2477569</v>
       </c>
+      <c r="G58" t="n">
+        <v>2481997</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1740,6 +1916,9 @@
       <c r="F59" t="n">
         <v>772838</v>
       </c>
+      <c r="G59" t="n">
+        <v>772845</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1762,6 +1941,9 @@
       <c r="F60" t="n">
         <v>1106424</v>
       </c>
+      <c r="G60" t="n">
+        <v>1109753</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1784,6 +1966,9 @@
       <c r="F61" t="n">
         <v>1094590</v>
       </c>
+      <c r="G61" t="n">
+        <v>1095101</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1806,6 +1991,9 @@
       <c r="F62" t="n">
         <v>1093004</v>
       </c>
+      <c r="G62" t="n">
+        <v>1093004</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1828,6 +2016,9 @@
       <c r="F63" t="n">
         <v>841379</v>
       </c>
+      <c r="G63" t="n">
+        <v>841477</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1850,6 +2041,9 @@
       <c r="F64" t="n">
         <v>1042283</v>
       </c>
+      <c r="G64" t="n">
+        <v>1042362</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1872,6 +2066,9 @@
       <c r="F65" t="n">
         <v>654453</v>
       </c>
+      <c r="G65" t="n">
+        <v>654475</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1894,6 +2091,9 @@
       <c r="F66" t="n">
         <v>1123228</v>
       </c>
+      <c r="G66" t="n">
+        <v>1127222</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1916,6 +2116,9 @@
       <c r="F67" t="n">
         <v>1087394</v>
       </c>
+      <c r="G67" t="n">
+        <v>1087864</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1938,6 +2141,9 @@
       <c r="F68" t="n">
         <v>1264521</v>
       </c>
+      <c r="G68" t="n">
+        <v>1264999</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1960,6 +2166,9 @@
       <c r="F69" t="n">
         <v>1271228</v>
       </c>
+      <c r="G69" t="n">
+        <v>1274896</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1982,6 +2191,9 @@
       <c r="F70" t="n">
         <v>1660542</v>
       </c>
+      <c r="G70" t="n">
+        <v>2022700</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2003,6 +2215,9 @@
       </c>
       <c r="F71" t="n">
         <v>1386152</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1425113</v>
       </c>
     </row>
   </sheetData>

--- a/backend/charts/reorder_strategy.xlsx
+++ b/backend/charts/reorder_strategy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>optimal_inventory</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>holding_cost</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +499,9 @@
       <c r="G2" t="n">
         <v>1190244</v>
       </c>
+      <c r="H2" t="n">
+        <v>952195</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -519,6 +527,9 @@
       <c r="G3" t="n">
         <v>1243256</v>
       </c>
+      <c r="H3" t="n">
+        <v>1044335</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,6 +555,9 @@
       <c r="G4" t="n">
         <v>1364610</v>
       </c>
+      <c r="H4" t="n">
+        <v>1255441</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -569,6 +583,9 @@
       <c r="G5" t="n">
         <v>397464</v>
       </c>
+      <c r="H5" t="n">
+        <v>103340</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +611,9 @@
       <c r="G6" t="n">
         <v>791219</v>
       </c>
+      <c r="H6" t="n">
+        <v>411433</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -619,6 +639,9 @@
       <c r="G7" t="n">
         <v>974108</v>
       </c>
+      <c r="H7" t="n">
+        <v>642911</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -644,6 +667,9 @@
       <c r="G8" t="n">
         <v>1110962</v>
       </c>
+      <c r="H8" t="n">
+        <v>822111</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -669,6 +695,9 @@
       <c r="G9" t="n">
         <v>1193472</v>
       </c>
+      <c r="H9" t="n">
+        <v>954777</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -694,6 +723,9 @@
       <c r="G10" t="n">
         <v>1001398</v>
       </c>
+      <c r="H10" t="n">
+        <v>680950</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -719,6 +751,9 @@
       <c r="G11" t="n">
         <v>1074393</v>
       </c>
+      <c r="H11" t="n">
+        <v>773562</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -744,6 +779,9 @@
       <c r="G12" t="n">
         <v>1193464</v>
       </c>
+      <c r="H12" t="n">
+        <v>954771</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -769,6 +807,9 @@
       <c r="G13" t="n">
         <v>1832783</v>
       </c>
+      <c r="H13" t="n">
+        <v>2235995</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -794,6 +835,9 @@
       <c r="G14" t="n">
         <v>934031</v>
       </c>
+      <c r="H14" t="n">
+        <v>579099</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -819,6 +863,9 @@
       <c r="G15" t="n">
         <v>1271003</v>
       </c>
+      <c r="H15" t="n">
+        <v>1093062</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -844,6 +891,9 @@
       <c r="G16" t="n">
         <v>1416249</v>
       </c>
+      <c r="H16" t="n">
+        <v>1302949</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -869,6 +919,9 @@
       <c r="G17" t="n">
         <v>1122737</v>
       </c>
+      <c r="H17" t="n">
+        <v>853280</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -894,6 +947,9 @@
       <c r="G18" t="n">
         <v>950992</v>
       </c>
+      <c r="H18" t="n">
+        <v>608634</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -919,6 +975,9 @@
       <c r="G19" t="n">
         <v>845565</v>
       </c>
+      <c r="H19" t="n">
+        <v>473516</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -944,6 +1003,9 @@
       <c r="G20" t="n">
         <v>1086213</v>
       </c>
+      <c r="H20" t="n">
+        <v>782073</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -969,6 +1031,9 @@
       <c r="G21" t="n">
         <v>1137602</v>
       </c>
+      <c r="H21" t="n">
+        <v>864577</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -994,6 +1059,9 @@
       <c r="G22" t="n">
         <v>1425611</v>
       </c>
+      <c r="H22" t="n">
+        <v>1368586</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1019,6 +1087,9 @@
       <c r="G23" t="n">
         <v>958134</v>
       </c>
+      <c r="H23" t="n">
+        <v>613205</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1044,6 +1115,9 @@
       <c r="G24" t="n">
         <v>2980920</v>
       </c>
+      <c r="H24" t="n">
+        <v>5961840</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1069,6 +1143,9 @@
       <c r="G25" t="n">
         <v>1314966</v>
       </c>
+      <c r="H25" t="n">
+        <v>1157170</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1094,6 +1171,9 @@
       <c r="G26" t="n">
         <v>1174317</v>
       </c>
+      <c r="H26" t="n">
+        <v>915967</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1119,6 +1199,9 @@
       <c r="G27" t="n">
         <v>1173658</v>
       </c>
+      <c r="H27" t="n">
+        <v>915453</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1144,6 +1227,9 @@
       <c r="G28" t="n">
         <v>844594</v>
       </c>
+      <c r="H28" t="n">
+        <v>472972</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1169,6 +1255,9 @@
       <c r="G29" t="n">
         <v>977488</v>
       </c>
+      <c r="H29" t="n">
+        <v>645142</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1194,6 +1283,9 @@
       <c r="G30" t="n">
         <v>1490460</v>
       </c>
+      <c r="H30" t="n">
+        <v>1490460</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1219,6 +1311,9 @@
       <c r="G31" t="n">
         <v>1829065</v>
       </c>
+      <c r="H31" t="n">
+        <v>2231459</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1244,6 +1339,9 @@
       <c r="G32" t="n">
         <v>1106925</v>
       </c>
+      <c r="H32" t="n">
+        <v>819124</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1269,6 +1367,9 @@
       <c r="G33" t="n">
         <v>1371229</v>
       </c>
+      <c r="H33" t="n">
+        <v>1261530</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1294,6 +1395,9 @@
       <c r="G34" t="n">
         <v>1123611</v>
       </c>
+      <c r="H34" t="n">
+        <v>853944</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1319,6 +1423,9 @@
       <c r="G35" t="n">
         <v>1028793</v>
       </c>
+      <c r="H35" t="n">
+        <v>720155</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1344,6 +1451,9 @@
       <c r="G36" t="n">
         <v>1307056</v>
       </c>
+      <c r="H36" t="n">
+        <v>1150209</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1369,6 +1479,9 @@
       <c r="G37" t="n">
         <v>1833831</v>
       </c>
+      <c r="H37" t="n">
+        <v>2237273</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1394,6 +1507,9 @@
       <c r="G38" t="n">
         <v>1301982</v>
       </c>
+      <c r="H38" t="n">
+        <v>1145744</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1419,6 +1535,9 @@
       <c r="G39" t="n">
         <v>836879</v>
       </c>
+      <c r="H39" t="n">
+        <v>468652</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1444,6 +1563,9 @@
       <c r="G40" t="n">
         <v>1158102</v>
       </c>
+      <c r="H40" t="n">
+        <v>903319</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1469,6 +1591,9 @@
       <c r="G41" t="n">
         <v>1355170</v>
       </c>
+      <c r="H41" t="n">
+        <v>1219653</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1494,6 +1619,9 @@
       <c r="G42" t="n">
         <v>1093004</v>
       </c>
+      <c r="H42" t="n">
+        <v>808822</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1519,6 +1647,9 @@
       <c r="G43" t="n">
         <v>1502813</v>
       </c>
+      <c r="H43" t="n">
+        <v>1442700</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1544,6 +1675,9 @@
       <c r="G44" t="n">
         <v>1156545</v>
       </c>
+      <c r="H44" t="n">
+        <v>855843</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1569,6 +1703,9 @@
       <c r="G45" t="n">
         <v>1100273</v>
       </c>
+      <c r="H45" t="n">
+        <v>814202</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1594,6 +1731,9 @@
       <c r="G46" t="n">
         <v>1201841</v>
       </c>
+      <c r="H46" t="n">
+        <v>961472</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1619,6 +1759,9 @@
       <c r="G47" t="n">
         <v>695548</v>
       </c>
+      <c r="H47" t="n">
+        <v>319952</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1644,6 +1787,9 @@
       <c r="G48" t="n">
         <v>1239511</v>
       </c>
+      <c r="H48" t="n">
+        <v>1041189</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1669,6 +1815,9 @@
       <c r="G49" t="n">
         <v>1201862</v>
       </c>
+      <c r="H49" t="n">
+        <v>961489</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1694,6 +1843,9 @@
       <c r="G50" t="n">
         <v>1020268</v>
       </c>
+      <c r="H50" t="n">
+        <v>693782</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1719,6 +1871,9 @@
       <c r="G51" t="n">
         <v>1119498</v>
       </c>
+      <c r="H51" t="n">
+        <v>850818</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1744,6 +1899,9 @@
       <c r="G52" t="n">
         <v>1137919</v>
       </c>
+      <c r="H52" t="n">
+        <v>864818</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1769,6 +1927,9 @@
       <c r="G53" t="n">
         <v>794916</v>
       </c>
+      <c r="H53" t="n">
+        <v>429254</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1794,6 +1955,9 @@
       <c r="G54" t="n">
         <v>1006156</v>
       </c>
+      <c r="H54" t="n">
+        <v>684186</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1819,6 +1983,9 @@
       <c r="G55" t="n">
         <v>1311347</v>
       </c>
+      <c r="H55" t="n">
+        <v>1153985</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1844,6 +2011,9 @@
       <c r="G56" t="n">
         <v>1115092</v>
       </c>
+      <c r="H56" t="n">
+        <v>825168</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1869,6 +2039,9 @@
       <c r="G57" t="n">
         <v>1118277</v>
       </c>
+      <c r="H57" t="n">
+        <v>849890</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1894,6 +2067,9 @@
       <c r="G58" t="n">
         <v>2481997</v>
       </c>
+      <c r="H58" t="n">
+        <v>4120115</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1919,6 +2095,9 @@
       <c r="G59" t="n">
         <v>772845</v>
       </c>
+      <c r="H59" t="n">
+        <v>401879</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1944,6 +2123,9 @@
       <c r="G60" t="n">
         <v>1109753</v>
       </c>
+      <c r="H60" t="n">
+        <v>821217</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1969,6 +2151,9 @@
       <c r="G61" t="n">
         <v>1095101</v>
       </c>
+      <c r="H61" t="n">
+        <v>810374</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1994,6 +2179,9 @@
       <c r="G62" t="n">
         <v>1093004</v>
       </c>
+      <c r="H62" t="n">
+        <v>808822</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2019,6 +2207,9 @@
       <c r="G63" t="n">
         <v>841477</v>
       </c>
+      <c r="H63" t="n">
+        <v>471227</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2044,6 +2235,9 @@
       <c r="G64" t="n">
         <v>1042362</v>
       </c>
+      <c r="H64" t="n">
+        <v>729653</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2069,6 +2263,9 @@
       <c r="G65" t="n">
         <v>654475</v>
       </c>
+      <c r="H65" t="n">
+        <v>287969</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2094,6 +2291,9 @@
       <c r="G66" t="n">
         <v>1127222</v>
       </c>
+      <c r="H66" t="n">
+        <v>856688</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2119,6 +2319,9 @@
       <c r="G67" t="n">
         <v>1087864</v>
       </c>
+      <c r="H67" t="n">
+        <v>783262</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2144,6 +2347,9 @@
       <c r="G68" t="n">
         <v>1264999</v>
       </c>
+      <c r="H68" t="n">
+        <v>1062599</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2169,6 +2375,9 @@
       <c r="G69" t="n">
         <v>1274896</v>
       </c>
+      <c r="H69" t="n">
+        <v>1096410</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2194,6 +2403,9 @@
       <c r="G70" t="n">
         <v>2022700</v>
       </c>
+      <c r="H70" t="n">
+        <v>1779976</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2218,6 +2430,9 @@
       </c>
       <c r="G71" t="n">
         <v>1425113</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1282601</v>
       </c>
     </row>
   </sheetData>
